--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,32 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,37 +709,43 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +773,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,17 +821,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,17 +960,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,16 +990,19 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,16 +1038,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1034,16 +1068,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1063,8 +1100,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,17 +1132,20 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,16 +1164,19 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,17 +1228,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1260,20 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,16 +1420,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1382,17 +1452,20 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,17 +1516,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,22 +1548,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1615,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E41" s="3">
         <v>46600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,17 +1677,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,16 +1741,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>700</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1674,17 +1773,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E46" s="3">
         <v>47400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1805,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,17 +1837,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1869,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,16 +1965,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2029,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E54" s="3">
         <v>48000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2091,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,16 +2121,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2153,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+      <c r="E59" s="3">
+        <v>1400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2048,17 +2185,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,17 +2217,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2106,17 +2249,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2377,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2551,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2679,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E76" s="3">
         <v>44500</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2743,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,17 +2780,20 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,16 +2828,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3018,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,16 +3066,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,16 +3160,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,17 +3334,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>42000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,16 +3366,19 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3149,17 +3398,20 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>39100</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,43 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43921</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -712,25 +715,28 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,14 +744,17 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,25 +837,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -854,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,25 +989,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -993,25 +1022,28 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,25 +1074,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1071,25 +1107,28 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1103,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,25 +1177,28 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1167,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1178,14 +1226,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1199,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,25 +1282,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1263,25 +1317,28 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1295,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,25 +1492,28 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1455,25 +1527,28 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1487,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,25 +1597,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1551,30 +1632,33 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43921</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
@@ -1588,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,20 +1704,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>43200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,31 +1737,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>40100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1680,20 +1772,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1807,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,19 +1842,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1776,20 +1877,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E46" s="3">
         <v>44300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,8 +1947,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1849,11 +1959,11 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1982,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1904,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1979,8 +2101,8 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2000,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,20 +2157,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E54" s="3">
         <v>45400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,20 +2224,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2133,10 +2269,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2156,19 +2292,22 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>1400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2188,20 +2327,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2229,11 +2374,11 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2252,20 +2397,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,20 +2537,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,20 +2727,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,20 +2867,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E76" s="3">
         <v>41400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44500</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,30 +2937,33 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43921</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
@@ -2783,25 +2977,28 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2815,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2840,14 +3041,14 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2861,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,25 +3237,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3053,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3078,14 +3301,14 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3099,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3174,14 +3406,14 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3195,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,25 +3582,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>42000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3369,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3380,14 +3631,14 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3401,25 +3652,28 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3431,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,19 +730,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -747,14 +750,17 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,28 +850,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,28 +1015,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,19 +1063,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1093,11 +1126,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,20 +1155,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,29 +1219,32 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,8 +1280,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,29 +1333,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,29 +1371,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1513,11 +1582,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,29 +1599,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,29 +1675,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1790,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,17 +1826,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E42" s="3">
         <v>40100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1855,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1775,23 +1864,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,22 +1940,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1880,23 +1978,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E46" s="3">
         <v>41600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,23 +2054,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
       </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2092,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2104,8 +2223,8 @@
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2282,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,23 +2354,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,10 +2405,10 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2295,22 +2428,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1400</v>
       </c>
       <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>1400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2330,23 +2466,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2377,11 +2519,11 @@
         <v>600</v>
       </c>
       <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2400,23 +2542,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2694,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2900,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3052,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E76" s="3">
         <v>37500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,29 +3171,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3050,8 +3248,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,29 +3453,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3310,8 +3530,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3415,8 +3644,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3827,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3594,20 +3839,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>42000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,13 +3865,16 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3640,8 +3888,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3655,29 +3903,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,55 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,46 +723,58 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +811,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +855,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,35 +877,37 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +917,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +961,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +1005,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1049,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,35 +1068,37 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,35 +1108,41 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-5200</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1152,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,16 +1174,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1129,14 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,35 +1214,41 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-5100</v>
       </c>
       <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1258,14 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,35 +1302,41 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1346,14 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1283,11 +1375,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1390,14 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,35 +1434,41 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,35 +1478,41 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1522,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1566,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1610,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1654,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,16 +1698,22 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1585,14 +1725,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,35 +1742,41 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1786,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,35 +1830,41 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1874,46 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1923,14 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1945,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,29 +1963,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>43200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>46600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,23 +2003,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F42" s="3">
         <v>33600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>40100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1858,17 +2038,23 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1876,19 +2062,19 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1905,8 +2091,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,29 +2135,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,29 +2179,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F46" s="3">
         <v>37700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>41600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>44300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>47400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,31 +2223,37 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>4900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2057,29 +2267,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2311,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2355,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2399,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,16 +2443,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2226,11 +2466,11 @@
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2487,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,29 +2531,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F54" s="3">
         <v>39000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>42600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>45400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>48000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2575,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2597,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,29 +2615,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2655,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,13 +2676,13 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2431,29 +2699,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,29 +2743,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,13 +2787,19 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -2522,14 +2808,14 @@
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2545,29 +2831,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2875,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2919,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2963,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,29 +3007,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +3051,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +3073,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +3113,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +3157,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3201,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,29 +3245,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3289,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3333,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3377,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,29 +3421,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F76" s="3">
         <v>34800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>37500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>44500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3465,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3509,46 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,35 +3558,41 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3602,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3624,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,11 +3649,11 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3664,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3708,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3752,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3796,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3840,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,35 +3884,41 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3928,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3950,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3533,11 +3975,11 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3990,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +4034,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,13 +4078,19 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-14900</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3647,11 +4107,11 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +4122,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +4144,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +4184,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +4228,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4272,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4316,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,23 +4334,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>42000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,20 +4360,26 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3891,11 +4389,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3906,35 +4404,41 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>39100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4446,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,17 +730,20 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -747,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -767,14 +771,17 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,37 +892,38 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3">
+        <v>400</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,37 +1096,38 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3300</v>
       </c>
       <c r="F17" s="3">
         <v>3300</v>
       </c>
       <c r="G17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>500</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1114,37 +1141,40 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-3300</v>
       </c>
       <c r="F18" s="3">
         <v>-3300</v>
       </c>
       <c r="G18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>-500</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,19 +1209,20 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1203,11 +1237,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,38 +1254,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,38 +1348,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,8 +1427,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,38 +1489,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,38 +1536,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,19 +1771,22 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-100</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1731,11 +1801,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,38 +1818,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,38 +1912,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,43 +1959,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
         <v>1400</v>
       </c>
       <c r="F41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,26 +2096,29 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E42" s="3">
         <v>22900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>32900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>40100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,8 +2134,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2053,13 +2143,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2068,17 +2161,17 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,31 +2237,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>700</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2185,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E46" s="3">
         <v>25800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,17 +2331,20 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3">
         <v>4900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2360,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2273,32 +2378,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2472,8 +2592,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E54" s="3">
         <v>31900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2682,10 +2816,10 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2705,31 +2839,34 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
       </c>
       <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>1400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2749,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2802,7 +2945,7 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
@@ -2814,11 +2957,11 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2837,32 +2980,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
       <c r="G62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E76" s="3">
         <v>27000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,43 +3704,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,38 +3756,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,8 +3854,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,38 +4104,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,13 +4172,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3981,8 +4202,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,17 +4311,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4113,8 +4343,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,8 +4565,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4340,20 +4586,20 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>42000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4375,14 +4624,14 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -4395,8 +4644,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4410,38 +4659,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -1497,8 +1497,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-4600</v>
       </c>
       <c r="E26" s="3">
         <v>-5100</v>
@@ -1544,8 +1544,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-4600</v>
       </c>
       <c r="E27" s="3">
         <v>-5100</v>
@@ -1826,8 +1826,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-4600</v>
       </c>
       <c r="E33" s="3">
         <v>-5100</v>
@@ -1920,8 +1920,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-4600</v>
       </c>
       <c r="E35" s="3">
         <v>-5100</v>
@@ -2152,7 +2152,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2246,7 +2246,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="3">
         <v>1400</v>
@@ -3764,8 +3764,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-4600</v>
       </c>
       <c r="E81" s="3">
         <v>-5100</v>

--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,55 +734,67 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +840,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +893,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,44 +918,46 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1020,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1073,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1126,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1148,46 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,44 +1197,50 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-5200</v>
       </c>
       <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1250,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,26 +1275,28 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1240,14 +1307,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,44 +1324,50 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-5100</v>
       </c>
       <c r="E21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1377,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,44 +1430,50 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1483,14 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1430,11 +1521,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1536,14 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1589,50 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1642,50 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1695,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1801,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,26 +1907,32 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1804,14 +1943,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1960,50 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +2013,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +2066,50 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2119,55 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2177,14 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2223,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>43200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>46600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,32 +2272,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F42" s="3">
         <v>20900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>22900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>32900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>33600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>40100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,17 +2316,23 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2164,19 +2349,19 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2193,8 +2378,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2431,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2484,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F46" s="3">
         <v>24300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>25800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>36400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>37700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>41600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>44300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>47400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,23 +2537,29 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F47" s="3">
         <v>2900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4900</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,11 +2572,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2381,8 +2590,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2390,29 +2605,29 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2643,14 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2696,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2802,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2584,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2595,11 +2834,11 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2616,8 +2855,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2908,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F54" s="3">
         <v>28300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>31900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>37600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>39000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>42600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>45400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>48000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +3007,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +3056,14 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2819,13 +3086,13 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2842,38 +3109,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="E59" s="3">
         <v>2400</v>
       </c>
       <c r="F59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3162,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3215,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2948,10 +3233,10 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -2960,14 +3245,14 @@
         <v>600</v>
       </c>
       <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>600</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,38 +3268,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3321,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3480,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3766,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3978,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F76" s="3">
         <v>22700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>27000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>34800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>37500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>41400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>44500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +4084,55 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +4142,50 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4195,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4220,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,11 +4254,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3872,8 +4269,14 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4534,50 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4587,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,20 +4612,22 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4205,11 +4646,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4220,8 +4661,14 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,23 +4767,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-14900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4346,11 +4805,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4820,14 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4845,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,13 +5053,19 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4589,23 +5080,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>42000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,29 +5106,35 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4647,11 +5144,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4662,44 +5159,50 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>39100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +5210,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GANX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>GANX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,26 +741,29 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -767,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -787,14 +791,17 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,46 +933,47 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
+      <c r="O12" s="3">
+        <v>400</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,46 +1176,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3300</v>
       </c>
       <c r="I17" s="3">
         <v>3300</v>
       </c>
       <c r="J17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>500</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1203,46 +1230,49 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3300</v>
       </c>
       <c r="I18" s="3">
         <v>-3300</v>
       </c>
       <c r="J18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>-500</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,28 +1310,29 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1313,11 +1347,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,47 +1364,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,47 +1476,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-4600</v>
       </c>
       <c r="F23" s="3">
         <v>-4600</v>
       </c>
       <c r="G23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1532,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1498,11 +1544,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1527,8 +1573,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1644,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1700,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,28 +1980,31 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1949,11 +2019,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2036,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2148,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2204,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2311,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2900</v>
+        <v>6300</v>
       </c>
       <c r="E41" s="3">
-        <v>2900</v>
+        <v>6000</v>
       </c>
       <c r="F41" s="3">
-        <v>1800</v>
+        <v>7300</v>
       </c>
       <c r="G41" s="3">
-        <v>1400</v>
+        <v>10900</v>
       </c>
       <c r="H41" s="3">
-        <v>1400</v>
+        <v>14300</v>
       </c>
       <c r="I41" s="3">
-        <v>3300</v>
+        <v>34300</v>
       </c>
       <c r="J41" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,35 +2365,38 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14900</v>
+        <v>9900</v>
       </c>
       <c r="E42" s="3">
-        <v>17200</v>
+        <v>11800</v>
       </c>
       <c r="F42" s="3">
-        <v>20900</v>
+        <v>12800</v>
       </c>
       <c r="G42" s="3">
-        <v>22900</v>
+        <v>11900</v>
       </c>
       <c r="H42" s="3">
-        <v>32900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>33600</v>
-      </c>
-      <c r="J42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>40100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2412,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2331,8 +2421,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2355,17 +2448,17 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,40 +2533,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>700</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2490,41 +2589,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E46" s="3">
         <v>19300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,26 +2645,29 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2683,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2596,13 +2701,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -2611,26 +2719,26 @@
         <v>1000</v>
       </c>
       <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1200</v>
       </c>
       <c r="I48" s="3">
         <v>1200</v>
       </c>
       <c r="J48" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
       </c>
       <c r="L48" s="3">
+        <v>900</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2829,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2840,8 +2960,8 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3037,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E54" s="3">
         <v>21300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3139,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3092,10 +3226,10 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -3115,40 +3249,43 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1400</v>
       </c>
       <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>1400</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -3168,41 +3305,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3239,7 +3382,7 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
@@ -3251,11 +3394,11 @@
         <v>600</v>
       </c>
       <c r="L61" s="3">
+        <v>600</v>
+      </c>
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3274,41 +3417,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1000</v>
       </c>
       <c r="I62" s="3">
         <v>1000</v>
       </c>
       <c r="J62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3641,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3943,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4167,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E76" s="3">
         <v>15100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4279,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4340,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4260,8 +4459,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4754,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +4834,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4626,11 +4847,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4652,8 +4873,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,26 +5000,29 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-14900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4811,8 +5041,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,17 +5302,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5086,20 +5332,20 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>42000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,32 +5358,35 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5150,8 +5399,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5165,47 +5414,50 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
